--- a/GATEWAY/S1#042000000000XX/APSS/SIO/2.12.0/report-checklist.xlsx
+++ b/GATEWAY/S1#042000000000XX/APSS/SIO/2.12.0/report-checklist.xlsx
@@ -480,7 +480,25 @@
     <t xml:space="preserve">N/A</t>
   </si>
   <si>
-    <t xml:space="preserve">Gestione in backoffice a fronte della segnalazione puntale dell’errore con intervento sul sistema produttore e/o sull’anagrafe degli operatori</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Gestione in backoffice a fronte della segnalazione puntale dell’errore con intervento sul sistema produttore e/o sull’anagrafe degli operatori. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Il processo clinico non viene interrotto e prosegue con la pubblicazione sul registry regionale. Il docuimento viene messo in un’apposita coda per un nuovo tentativo di validazione in un secondo momento</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">KO</t>
@@ -1164,7 +1182,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1234,6 +1252,12 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3825,11 +3849,11 @@
   <dimension ref="A1:T679"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="M22" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topRight" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="P24" activeCellId="0" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
